--- a/Code/Results/Cases/Case_6_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.0012107613761</v>
+        <v>26.00121076137614</v>
       </c>
       <c r="C2">
-        <v>19.28007844151929</v>
+        <v>19.28007844151917</v>
       </c>
       <c r="D2">
         <v>4.201440065413223</v>
       </c>
       <c r="E2">
-        <v>9.210395248498299</v>
+        <v>9.210395248498315</v>
       </c>
       <c r="F2">
-        <v>39.16779788075676</v>
+        <v>39.16779788075673</v>
       </c>
       <c r="G2">
-        <v>2.042616991887839</v>
+        <v>2.042616991887841</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>20.245322203196</v>
       </c>
       <c r="N2">
-        <v>12.92273344980005</v>
+        <v>12.92273344980001</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.09947917763353</v>
+        <v>24.09947917763359</v>
       </c>
       <c r="C3">
-        <v>17.87290641929581</v>
+        <v>17.87290641929599</v>
       </c>
       <c r="D3">
-        <v>4.23228596588618</v>
+        <v>4.232285965886047</v>
       </c>
       <c r="E3">
-        <v>8.699212047795102</v>
+        <v>8.699212047795122</v>
       </c>
       <c r="F3">
-        <v>36.97507691466388</v>
+        <v>36.97507691466389</v>
       </c>
       <c r="G3">
-        <v>2.055897249820014</v>
+        <v>2.055897249820275</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.78328918682112</v>
+        <v>18.78328918682115</v>
       </c>
       <c r="N3">
-        <v>13.09397858994972</v>
+        <v>13.09397858994973</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87738622785389</v>
+        <v>22.87738622785381</v>
       </c>
       <c r="C4">
-        <v>16.96882075152192</v>
+        <v>16.96882075152158</v>
       </c>
       <c r="D4">
-        <v>4.255556573866697</v>
+        <v>4.255556573867042</v>
       </c>
       <c r="E4">
-        <v>8.383030416257814</v>
+        <v>8.383030416257773</v>
       </c>
       <c r="F4">
-        <v>35.61626843086172</v>
+        <v>35.61626843086187</v>
       </c>
       <c r="G4">
-        <v>2.064185829142031</v>
+        <v>2.064185829141902</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.84447064762695</v>
+        <v>17.84447064762686</v>
       </c>
       <c r="N4">
-        <v>13.20492993314145</v>
+        <v>13.20492993314165</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36538063133631</v>
+        <v>22.3653806313362</v>
       </c>
       <c r="C5">
-        <v>16.59005701945137</v>
+        <v>16.59005701945136</v>
       </c>
       <c r="D5">
-        <v>4.266027866336954</v>
+        <v>4.266027866336934</v>
       </c>
       <c r="E5">
-        <v>8.253657452582292</v>
+        <v>8.253657452582287</v>
       </c>
       <c r="F5">
-        <v>35.0597012228199</v>
+        <v>35.05970122281998</v>
       </c>
       <c r="G5">
-        <v>2.067601890657916</v>
+        <v>2.067601890658312</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.45127992966743</v>
+        <v>17.45127992966734</v>
       </c>
       <c r="N5">
-        <v>13.2515221759516</v>
+        <v>13.2515221759517</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.2795089934037</v>
+        <v>22.27950899340372</v>
       </c>
       <c r="C6">
-        <v>16.52653168779599</v>
+        <v>16.5265316877961</v>
       </c>
       <c r="D6">
-        <v>4.267823580367565</v>
+        <v>4.267823580367398</v>
       </c>
       <c r="E6">
-        <v>8.232145703953812</v>
+        <v>8.232145703953824</v>
       </c>
       <c r="F6">
-        <v>34.96712360032277</v>
+        <v>34.96712360032267</v>
       </c>
       <c r="G6">
-        <v>2.068171569942971</v>
+        <v>2.068171569943105</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.38534226995995</v>
+        <v>17.38534226995999</v>
       </c>
       <c r="N6">
-        <v>13.25933990625996</v>
+        <v>13.25933990625988</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.87053818092015</v>
+        <v>22.8705381809201</v>
       </c>
       <c r="C7">
-        <v>16.96375481694422</v>
+        <v>16.9637548169442</v>
       </c>
       <c r="D7">
-        <v>4.255693916484979</v>
+        <v>4.255693916484965</v>
       </c>
       <c r="E7">
-        <v>8.381287678577284</v>
+        <v>8.38128767857725</v>
       </c>
       <c r="F7">
-        <v>35.60877337573864</v>
+        <v>35.60877337573863</v>
       </c>
       <c r="G7">
-        <v>2.064231738127064</v>
+        <v>2.06423173812733</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.83921126265047</v>
+        <v>17.83921126265043</v>
       </c>
       <c r="N7">
-        <v>13.20555280869712</v>
+        <v>13.20555280869716</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35659277238474</v>
+        <v>25.35659277238479</v>
       </c>
       <c r="C8">
-        <v>18.80303713257128</v>
+        <v>18.80303713257129</v>
       </c>
       <c r="D8">
-        <v>4.211112456104955</v>
+        <v>4.211112456104972</v>
       </c>
       <c r="E8">
-        <v>9.034640683071963</v>
+        <v>9.034640683071979</v>
       </c>
       <c r="F8">
-        <v>38.4144625067127</v>
+        <v>38.41446250671274</v>
       </c>
       <c r="G8">
-        <v>2.047171032844329</v>
+        <v>2.047171032844326</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.74957606574638</v>
+        <v>19.7495760657464</v>
       </c>
       <c r="N8">
-        <v>12.98052069658066</v>
+        <v>12.98052069658065</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81578874914839</v>
+        <v>29.81578874914849</v>
       </c>
       <c r="C9">
-        <v>22.10515392117048</v>
+        <v>22.10515392117039</v>
       </c>
       <c r="D9">
-        <v>4.163265557486656</v>
+        <v>4.16326555748657</v>
       </c>
       <c r="E9">
         <v>10.29721266751834</v>
       </c>
       <c r="F9">
-        <v>43.81334127907229</v>
+        <v>43.81334127907219</v>
       </c>
       <c r="G9">
-        <v>2.01454672207412</v>
+        <v>2.014546722074248</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.18329236847806</v>
+        <v>23.1832923684781</v>
       </c>
       <c r="N9">
-        <v>12.58973357813335</v>
+        <v>12.58973357813333</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86395098380664</v>
+        <v>32.86395098380665</v>
       </c>
       <c r="C10">
-        <v>24.366534049087</v>
+        <v>24.36653404908692</v>
       </c>
       <c r="D10">
-        <v>4.160661672255372</v>
+        <v>4.160661672255431</v>
       </c>
       <c r="E10">
-        <v>11.38516371357499</v>
+        <v>11.38516371357501</v>
       </c>
       <c r="F10">
-        <v>47.72520761289874</v>
+        <v>47.72520761289872</v>
       </c>
       <c r="G10">
-        <v>1.99070474871625</v>
+        <v>1.990704748716517</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.53747694927857</v>
+        <v>25.53747694927856</v>
       </c>
       <c r="N10">
-        <v>12.3410387686068</v>
+        <v>12.34103876860682</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.20799687057937</v>
+        <v>34.20799687057949</v>
       </c>
       <c r="C11">
-        <v>25.36514074699169</v>
+        <v>25.36514074699177</v>
       </c>
       <c r="D11">
-        <v>4.168806798917418</v>
+        <v>4.1688067989173</v>
       </c>
       <c r="E11">
-        <v>11.87772179817561</v>
+        <v>11.87772179817567</v>
       </c>
       <c r="F11">
-        <v>49.60196249311253</v>
+        <v>49.60196249311269</v>
       </c>
       <c r="G11">
-        <v>1.979782891815667</v>
+        <v>1.979782891815672</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.57769641344952</v>
+        <v>26.57769641344964</v>
       </c>
       <c r="N11">
-        <v>12.23847543672112</v>
+        <v>12.23847543672098</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.71151636603391</v>
+        <v>34.71151636603383</v>
       </c>
       <c r="C12">
-        <v>25.73951762123614</v>
+        <v>25.739517621236</v>
       </c>
       <c r="D12">
-        <v>4.173457762269871</v>
+        <v>4.173457762269891</v>
       </c>
       <c r="E12">
-        <v>12.06299633120147</v>
+        <v>12.06299633120148</v>
       </c>
       <c r="F12">
-        <v>50.31781383353439</v>
+        <v>50.31781383353422</v>
       </c>
       <c r="G12">
-        <v>1.975625688847047</v>
+        <v>1.97562568884719</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.96776752017659</v>
+        <v>26.9677675201765</v>
       </c>
       <c r="N12">
-        <v>12.20139602763638</v>
+        <v>12.20139602763648</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>34.60330432990528</v>
       </c>
       <c r="C13">
-        <v>25.65904682463919</v>
+        <v>25.65904682463933</v>
       </c>
       <c r="D13">
-        <v>4.172382467494568</v>
+        <v>4.172382467494544</v>
       </c>
       <c r="E13">
-        <v>12.02314371578165</v>
+        <v>12.02314371578163</v>
       </c>
       <c r="F13">
-        <v>50.16371989848765</v>
+        <v>50.16371989848769</v>
       </c>
       <c r="G13">
-        <v>1.976522151625023</v>
+        <v>1.976522151624882</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.88391910839115</v>
+        <v>26.88391910839114</v>
       </c>
       <c r="N13">
-        <v>12.20929914845607</v>
+        <v>12.20929914845606</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.24952645740855</v>
+        <v>34.24952645740831</v>
       </c>
       <c r="C14">
-        <v>25.39601306729494</v>
+        <v>25.39601306729459</v>
       </c>
       <c r="D14">
-        <v>4.16915662861352</v>
+        <v>4.169156628613623</v>
       </c>
       <c r="E14">
-        <v>11.89298733525509</v>
+        <v>11.89298733525515</v>
       </c>
       <c r="F14">
-        <v>49.66089258804555</v>
+        <v>49.66089258804526</v>
       </c>
       <c r="G14">
-        <v>1.979441370058556</v>
+        <v>1.979441370058423</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.60986103606457</v>
+        <v>26.60986103606444</v>
       </c>
       <c r="N14">
-        <v>12.2353880850743</v>
+        <v>12.23538808507437</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.0321408569804</v>
+        <v>34.03214085698051</v>
       </c>
       <c r="C15">
-        <v>25.23442394060093</v>
+        <v>25.23442394060096</v>
       </c>
       <c r="D15">
-        <v>4.167391984648924</v>
+        <v>4.167391984648854</v>
       </c>
       <c r="E15">
-        <v>11.81311120983067</v>
+        <v>11.8131112098307</v>
       </c>
       <c r="F15">
-        <v>49.35265011441754</v>
+        <v>49.3526501144176</v>
       </c>
       <c r="G15">
-        <v>1.981226356922828</v>
+        <v>1.981226356922955</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.44151166734152</v>
+        <v>26.4415116673416</v>
       </c>
       <c r="N15">
-        <v>12.25160535893392</v>
+        <v>12.25160535893384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77531329776967</v>
+        <v>32.77531329776976</v>
       </c>
       <c r="C16">
-        <v>24.30071232415376</v>
+        <v>24.3007123241539</v>
       </c>
       <c r="D16">
-        <v>4.160335578717578</v>
+        <v>4.16033557871763</v>
       </c>
       <c r="E16">
-        <v>11.35278027048719</v>
+        <v>11.35278027048715</v>
       </c>
       <c r="F16">
-        <v>47.60923860365087</v>
+        <v>47.60923860365111</v>
       </c>
       <c r="G16">
-        <v>1.991416140058401</v>
+        <v>1.99141614005827</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.46892547928342</v>
+        <v>25.46892547928346</v>
       </c>
       <c r="N16">
-        <v>12.34797354287752</v>
+        <v>12.34797354287754</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.9938348993127</v>
+        <v>31.99383489931271</v>
       </c>
       <c r="C17">
-        <v>23.72056649047142</v>
+        <v>23.72056649047135</v>
       </c>
       <c r="D17">
-        <v>4.158546008979706</v>
+        <v>4.158546008979759</v>
       </c>
       <c r="E17">
-        <v>11.06779308807037</v>
+        <v>11.06779308807041</v>
       </c>
       <c r="F17">
-        <v>46.59233175283381</v>
+        <v>46.59233175283384</v>
       </c>
       <c r="G17">
-        <v>1.997640926167394</v>
+        <v>1.997640926167396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>24.86479201168197</v>
       </c>
       <c r="N17">
-        <v>12.40995451761313</v>
+        <v>12.40995451761309</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.5402946887876</v>
+        <v>31.5402946887875</v>
       </c>
       <c r="C18">
-        <v>23.38401005110618</v>
+        <v>23.38401005110606</v>
       </c>
       <c r="D18">
-        <v>4.158379527894083</v>
+        <v>4.158379527894121</v>
       </c>
       <c r="E18">
-        <v>10.90282233055856</v>
+        <v>10.90282233055861</v>
       </c>
       <c r="F18">
-        <v>46.00681823306088</v>
+        <v>46.00681823306082</v>
       </c>
       <c r="G18">
-        <v>2.001214821862808</v>
+        <v>2.001214821862813</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.51438003407841</v>
+        <v>24.51438003407836</v>
       </c>
       <c r="N18">
-        <v>12.44658219792132</v>
+        <v>12.44658219792133</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.38601845351017</v>
+        <v>31.38601845351027</v>
       </c>
       <c r="C19">
-        <v>23.2695491174703</v>
+        <v>23.26954911747046</v>
       </c>
       <c r="D19">
-        <v>4.158465033506793</v>
+        <v>4.158465033506832</v>
       </c>
       <c r="E19">
-        <v>10.84677599483443</v>
+        <v>10.84677599483438</v>
       </c>
       <c r="F19">
-        <v>45.80844792642607</v>
+        <v>45.80844792642614</v>
       </c>
       <c r="G19">
-        <v>2.002424064000948</v>
+        <v>2.002424064000943</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.39521715597788</v>
+        <v>24.39521715597793</v>
       </c>
       <c r="N19">
-        <v>12.4591451428733</v>
+        <v>12.45914514287325</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.07743966017767</v>
+        <v>32.0774396601774</v>
       </c>
       <c r="C20">
-        <v>23.78261750486508</v>
+        <v>23.78261750486479</v>
       </c>
       <c r="D20">
-        <v>4.158645688356458</v>
+        <v>4.158645688356509</v>
       </c>
       <c r="E20">
-        <v>11.09823731154687</v>
+        <v>11.09823731154688</v>
       </c>
       <c r="F20">
-        <v>46.70064206621463</v>
+        <v>46.70064206621434</v>
       </c>
       <c r="G20">
-        <v>1.996979022801276</v>
+        <v>1.996979022801273</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.92940244633947</v>
+        <v>24.92940244633927</v>
       </c>
       <c r="N20">
-        <v>12.40325375457825</v>
+        <v>12.40325375457832</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.35358126177491</v>
+        <v>34.35358126177501</v>
       </c>
       <c r="C21">
-        <v>25.47336997481511</v>
+        <v>25.47336997481514</v>
       </c>
       <c r="D21">
-        <v>4.170059655208085</v>
+        <v>4.170059655208066</v>
       </c>
       <c r="E21">
-        <v>11.93124833753999</v>
+        <v>11.93124833753995</v>
       </c>
       <c r="F21">
-        <v>49.80863445214742</v>
+        <v>49.80863445214748</v>
       </c>
       <c r="G21">
-        <v>1.978584596064386</v>
+        <v>1.978584596064651</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.69045757463034</v>
+        <v>26.69045757463038</v>
       </c>
       <c r="N21">
-        <v>12.22767523144321</v>
+        <v>12.22767523144322</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.80986046988095</v>
+        <v>35.80986046988097</v>
       </c>
       <c r="C22">
-        <v>26.55670931211219</v>
+        <v>26.55670931211217</v>
       </c>
       <c r="D22">
-        <v>4.18678090978339</v>
+        <v>4.186780909783435</v>
       </c>
       <c r="E22">
-        <v>12.46860137230964</v>
+        <v>12.46860137230968</v>
       </c>
       <c r="F22">
-        <v>51.88944056871239</v>
+        <v>51.88944056871247</v>
       </c>
       <c r="G22">
-        <v>1.966432156072567</v>
+        <v>1.966432156072572</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.81938656001491</v>
+        <v>27.81938656001494</v>
       </c>
       <c r="N22">
-        <v>12.12332769958438</v>
+        <v>12.12332769958444</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.03522463259858</v>
+        <v>35.03522463259874</v>
       </c>
       <c r="C23">
-        <v>25.98028336130984</v>
+        <v>25.9802833613099</v>
       </c>
       <c r="D23">
-        <v>4.176925416131157</v>
+        <v>4.176925416131192</v>
       </c>
       <c r="E23">
-        <v>12.18232796392718</v>
+        <v>12.18232796392723</v>
       </c>
       <c r="F23">
-        <v>50.77958162325158</v>
+        <v>50.77958162325172</v>
       </c>
       <c r="G23">
-        <v>1.97293404474572</v>
+        <v>1.972934044745588</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.21865254006365</v>
+        <v>27.21865254006376</v>
       </c>
       <c r="N23">
-        <v>12.1779751911632</v>
+        <v>12.1779751911631</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.03965525979596</v>
+        <v>32.03965525979599</v>
       </c>
       <c r="C24">
-        <v>23.75457369724664</v>
+        <v>23.75457369724679</v>
       </c>
       <c r="D24">
-        <v>4.158597953833274</v>
+        <v>4.158597953833165</v>
       </c>
       <c r="E24">
-        <v>11.08447701488608</v>
+        <v>11.08447701488604</v>
       </c>
       <c r="F24">
-        <v>46.65167777103992</v>
+        <v>46.65167777103997</v>
       </c>
       <c r="G24">
-        <v>1.997278283560607</v>
+        <v>1.997278283560868</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.90020172814959</v>
+        <v>24.90020172814961</v>
       </c>
       <c r="N24">
-        <v>12.40628009100352</v>
+        <v>12.40628009100347</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.65156346124516</v>
+        <v>28.65156346124502</v>
       </c>
       <c r="C25">
-        <v>21.24245469841616</v>
+        <v>21.24245469841614</v>
       </c>
       <c r="D25">
-        <v>4.171175961225186</v>
+        <v>4.171175961225265</v>
       </c>
       <c r="E25">
-        <v>9.957515838922196</v>
+        <v>9.957515838922173</v>
       </c>
       <c r="F25">
-        <v>42.36369727069179</v>
+        <v>42.36369727069182</v>
       </c>
       <c r="G25">
-        <v>2.02331934297842</v>
+        <v>2.023319342978422</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.28574470952036</v>
+        <v>22.28574470952029</v>
       </c>
       <c r="N25">
-        <v>12.68934942730031</v>
+        <v>12.68934942730034</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.00121076137614</v>
+        <v>19.69644587241374</v>
       </c>
       <c r="C2">
-        <v>19.28007844151917</v>
+        <v>16.75486205461429</v>
       </c>
       <c r="D2">
-        <v>4.201440065413223</v>
+        <v>3.463278742003103</v>
       </c>
       <c r="E2">
-        <v>9.210395248498315</v>
+        <v>11.31044631315178</v>
       </c>
       <c r="F2">
-        <v>39.16779788075673</v>
+        <v>23.47082826034992</v>
       </c>
       <c r="G2">
-        <v>2.042616991887841</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.84745286320022</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.647673505379407</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.20456626032722</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.61383000257698</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.245322203196</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.92273344980001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.02988777732094</v>
+      </c>
+      <c r="P2">
+        <v>11.45909622967579</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.09947917763359</v>
+        <v>18.3832137605587</v>
       </c>
       <c r="C3">
-        <v>17.87290641929599</v>
+        <v>15.6741459765433</v>
       </c>
       <c r="D3">
-        <v>4.232285965886047</v>
+        <v>3.431144939725138</v>
       </c>
       <c r="E3">
-        <v>8.699212047795122</v>
+        <v>10.69452234888656</v>
       </c>
       <c r="F3">
-        <v>36.97507691466389</v>
+        <v>22.42680697194775</v>
       </c>
       <c r="G3">
-        <v>2.055897249820275</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.16694963011119</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.422173548163908</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.00424794287579</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.45683213848073</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.78328918682115</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.09397858994973</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.83293395825363</v>
+      </c>
+      <c r="P3">
+        <v>11.65137332628303</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87738622785381</v>
+        <v>17.5268626925856</v>
       </c>
       <c r="C4">
-        <v>16.96882075152158</v>
+        <v>14.97833346338743</v>
       </c>
       <c r="D4">
-        <v>4.255556573867042</v>
+        <v>3.411093607745038</v>
       </c>
       <c r="E4">
-        <v>8.383030416257773</v>
+        <v>10.31265884273332</v>
       </c>
       <c r="F4">
-        <v>35.61626843086187</v>
+        <v>21.77692880731324</v>
       </c>
       <c r="G4">
-        <v>2.064185829141902</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>30.11185261614041</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.279930423370084</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.885318618405783</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.36730171462393</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.84447064762686</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.20492993314165</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.05810699755936</v>
+      </c>
+      <c r="P4">
+        <v>11.77137502440717</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.3653806313362</v>
+        <v>17.15877353444685</v>
       </c>
       <c r="C5">
-        <v>16.59005701945136</v>
+        <v>14.69398023949804</v>
       </c>
       <c r="D5">
-        <v>4.266027866336934</v>
+        <v>3.403806729750823</v>
       </c>
       <c r="E5">
-        <v>8.253657452582287</v>
+        <v>10.15686367399593</v>
       </c>
       <c r="F5">
-        <v>35.05970122281998</v>
+        <v>21.49889097812551</v>
       </c>
       <c r="G5">
-        <v>2.067601890658312</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>29.65587237480936</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.221113517190308</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.833968050089458</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.32400694369037</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.45127992966734</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.2515221759517</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.73156280290742</v>
+      </c>
+      <c r="P5">
+        <v>11.82062289211905</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.27950899340372</v>
+        <v>17.08897809795446</v>
       </c>
       <c r="C6">
-        <v>16.5265316877961</v>
+        <v>14.65524417997768</v>
       </c>
       <c r="D6">
-        <v>4.267823580367398</v>
+        <v>3.403774750955071</v>
       </c>
       <c r="E6">
-        <v>8.232145703953824</v>
+        <v>10.13164512274329</v>
       </c>
       <c r="F6">
-        <v>34.96712360032267</v>
+        <v>21.43875201250806</v>
       </c>
       <c r="G6">
-        <v>2.068171569943105</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>29.55453432605873</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.211615782933065</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.820706094660226</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.30654414470526</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.38534226995999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.25933990625988</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.6758745940473</v>
+      </c>
+      <c r="P6">
+        <v>11.82863748407405</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.8705381809201</v>
+        <v>17.50085936235072</v>
       </c>
       <c r="C7">
-        <v>16.9637548169442</v>
+        <v>14.99846727330683</v>
       </c>
       <c r="D7">
-        <v>4.255693916484965</v>
+        <v>3.414242456532204</v>
       </c>
       <c r="E7">
-        <v>8.38128767857725</v>
+        <v>10.31241339383917</v>
       </c>
       <c r="F7">
-        <v>35.60877337573863</v>
+        <v>21.73585910886818</v>
       </c>
       <c r="G7">
-        <v>2.06423173812733</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>30.03776682086954</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.279725409501241</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.87159163587382</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.33845125915308</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.83921126265043</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.20555280869716</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.05145643936165</v>
+      </c>
+      <c r="P7">
+        <v>11.77157656265994</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.35659277238479</v>
+        <v>19.22818684636756</v>
       </c>
       <c r="C8">
-        <v>18.80303713257129</v>
+        <v>16.41818151497599</v>
       </c>
       <c r="D8">
-        <v>4.211112456104972</v>
+        <v>3.456643868880064</v>
       </c>
       <c r="E8">
-        <v>9.034640683071979</v>
+        <v>11.10123995324832</v>
       </c>
       <c r="F8">
-        <v>38.41446250671274</v>
+        <v>23.06602391784815</v>
       </c>
       <c r="G8">
-        <v>2.047171032844326</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>32.18856341054651</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.570992023370516</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.1177975547347</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.52127211204804</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.7495760657464</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.98052069658065</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.62257625367458</v>
+      </c>
+      <c r="P8">
+        <v>11.52471992018973</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.81578874914849</v>
+        <v>22.25564508613521</v>
       </c>
       <c r="C9">
-        <v>22.10515392117039</v>
+        <v>18.91024512460801</v>
       </c>
       <c r="D9">
-        <v>4.16326555748657</v>
+        <v>3.53118073896974</v>
       </c>
       <c r="E9">
-        <v>10.29721266751834</v>
+        <v>12.61084439750844</v>
       </c>
       <c r="F9">
-        <v>43.81334127907219</v>
+        <v>25.65340441247998</v>
       </c>
       <c r="G9">
-        <v>2.014546722074248</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>36.31501799523522</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.113601385664889</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.65491655616009</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.98650397781154</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.1832923684781</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.58973357813333</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.39422658965509</v>
+      </c>
+      <c r="P9">
+        <v>11.05518083714224</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.86395098380665</v>
+        <v>24.23666986720031</v>
       </c>
       <c r="C10">
-        <v>24.36653404908692</v>
+        <v>20.59971404915031</v>
       </c>
       <c r="D10">
-        <v>4.160661672255431</v>
+        <v>3.58589066352989</v>
       </c>
       <c r="E10">
-        <v>11.38516371357501</v>
+        <v>13.90960096147545</v>
       </c>
       <c r="F10">
-        <v>47.72520761289872</v>
+        <v>27.47429500089546</v>
       </c>
       <c r="G10">
-        <v>1.990704748716517</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>39.17743310785536</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.497277904644685</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.06210394454927</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.35273607275337</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.53747694927856</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34103876860682</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22.24429670082124</v>
+      </c>
+      <c r="P10">
+        <v>10.71746139454615</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.20799687057949</v>
+        <v>25.06314701384106</v>
       </c>
       <c r="C11">
-        <v>25.36514074699177</v>
+        <v>21.36454568287741</v>
       </c>
       <c r="D11">
-        <v>4.1688067989173</v>
+        <v>3.616019116486608</v>
       </c>
       <c r="E11">
-        <v>11.87772179817567</v>
+        <v>14.48310041157839</v>
       </c>
       <c r="F11">
-        <v>49.60196249311269</v>
+        <v>28.23948749094437</v>
       </c>
       <c r="G11">
-        <v>1.979782891815672</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>40.36357818549602</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.669955969301568</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.23248983403658</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.48547472412273</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.57769641344964</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.23847543672098</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23.04417838091414</v>
+      </c>
+      <c r="P11">
+        <v>10.56592362609898</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.71151636603383</v>
+        <v>25.38287740129288</v>
       </c>
       <c r="C12">
-        <v>25.739517621236</v>
+        <v>21.63411557040163</v>
       </c>
       <c r="D12">
-        <v>4.173457762269891</v>
+        <v>3.624380244464599</v>
       </c>
       <c r="E12">
-        <v>12.06299633120148</v>
+        <v>14.69637309529351</v>
       </c>
       <c r="F12">
-        <v>50.31781383353422</v>
+        <v>28.55304217933152</v>
       </c>
       <c r="G12">
-        <v>1.97562568884719</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>40.85423426382534</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.734523815500157</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.3077588274147</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.56012491079124</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.9677675201765</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.20139602763648</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>23.3432112760393</v>
+      </c>
+      <c r="P12">
+        <v>10.50828898004827</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.60330432990528</v>
+        <v>25.31703024502778</v>
       </c>
       <c r="C13">
-        <v>25.65904682463933</v>
+        <v>21.57321836749203</v>
       </c>
       <c r="D13">
-        <v>4.172382467494544</v>
+        <v>3.621978423876496</v>
       </c>
       <c r="E13">
-        <v>12.02314371578163</v>
+        <v>14.65032154229315</v>
       </c>
       <c r="F13">
-        <v>50.16371989848769</v>
+        <v>28.49073930882062</v>
       </c>
       <c r="G13">
-        <v>1.976522151624882</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>40.75780366491178</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.720497341347638</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.29354084950546</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.54857308277604</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.88391910839114</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.20929914845606</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>23.27936408876399</v>
+      </c>
+      <c r="P13">
+        <v>10.52060010468815</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.24952645740831</v>
+        <v>25.09074813981858</v>
       </c>
       <c r="C14">
-        <v>25.39601306729459</v>
+        <v>21.3855111815295</v>
       </c>
       <c r="D14">
-        <v>4.169156628613623</v>
+        <v>3.616451739571475</v>
       </c>
       <c r="E14">
-        <v>11.89298733525515</v>
+        <v>14.50059783933628</v>
       </c>
       <c r="F14">
-        <v>49.66089258804526</v>
+        <v>28.26752224078523</v>
       </c>
       <c r="G14">
-        <v>1.979441370058423</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>40.40790559353548</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.675211808835098</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.23953171621414</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.49354291375586</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.60986103606444</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.23538808507437</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>23.06902282498291</v>
+      </c>
+      <c r="P14">
+        <v>10.56114020801691</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.03214085698051</v>
+        <v>24.94583006257411</v>
       </c>
       <c r="C15">
-        <v>25.23442394060096</v>
+        <v>21.27603644020687</v>
       </c>
       <c r="D15">
-        <v>4.167391984648854</v>
+        <v>3.614247767500333</v>
       </c>
       <c r="E15">
-        <v>11.8131112098307</v>
+        <v>14.40901885723494</v>
       </c>
       <c r="F15">
-        <v>49.3526501144176</v>
+        <v>28.12026159896284</v>
       </c>
       <c r="G15">
-        <v>1.981226356922955</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>40.17491104107778</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.647768629828352</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.20251657678285</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.4509297629375</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.4415116673416</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.25160535893384</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>22.93885061099513</v>
+      </c>
+      <c r="P15">
+        <v>10.58616498934433</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.77531329776976</v>
+        <v>24.13516669782845</v>
       </c>
       <c r="C16">
-        <v>24.3007123241539</v>
+        <v>20.60155212662652</v>
       </c>
       <c r="D16">
-        <v>4.16033557871763</v>
+        <v>3.593890477733715</v>
       </c>
       <c r="E16">
-        <v>11.35278027048715</v>
+        <v>13.87587151966862</v>
       </c>
       <c r="F16">
-        <v>47.60923860365111</v>
+        <v>27.3360761016751</v>
       </c>
       <c r="G16">
-        <v>1.99141614005827</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>38.94376673907693</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.487977297996629</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.01689888410822</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.26709546091324</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.46892547928346</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.34797354287754</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>22.18589923677061</v>
+      </c>
+      <c r="P16">
+        <v>10.728624245678</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.99383489931271</v>
+        <v>23.62512215055443</v>
       </c>
       <c r="C17">
-        <v>23.72056649047135</v>
+        <v>20.17978189664867</v>
       </c>
       <c r="D17">
-        <v>4.158546008979759</v>
+        <v>3.581249583931671</v>
       </c>
       <c r="E17">
-        <v>11.06779308807041</v>
+        <v>13.54391085009444</v>
       </c>
       <c r="F17">
-        <v>46.59233175283384</v>
+        <v>26.85087341703096</v>
       </c>
       <c r="G17">
-        <v>1.997640926167396</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>38.17998444440897</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.389430685246431</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.90409460150751</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.15685883047281</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.86479201168197</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.40995451761309</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>21.71413242564897</v>
+      </c>
+      <c r="P17">
+        <v>10.81624748970675</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.5402946887875</v>
+        <v>23.34154924328219</v>
       </c>
       <c r="C18">
-        <v>23.38401005110606</v>
+        <v>19.91782319436496</v>
       </c>
       <c r="D18">
-        <v>4.158379527894121</v>
+        <v>3.570896164194559</v>
       </c>
       <c r="E18">
-        <v>10.90282233055861</v>
+        <v>13.34983433780331</v>
       </c>
       <c r="F18">
-        <v>46.00681823306082</v>
+        <v>26.59763610899852</v>
       </c>
       <c r="G18">
-        <v>2.001214821862813</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>37.78604626640286</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.331246669048093</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.85010285727527</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.11795074441476</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.51438003407836</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.44658219792133</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>21.44077810633785</v>
+      </c>
+      <c r="P18">
+        <v>10.86641644351562</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.38601845351027</v>
+        <v>23.23356452491964</v>
       </c>
       <c r="C19">
-        <v>23.26954911747046</v>
+        <v>19.84123538740459</v>
       </c>
       <c r="D19">
-        <v>4.158465033506832</v>
+        <v>3.569715825059748</v>
       </c>
       <c r="E19">
-        <v>10.84677599483438</v>
+        <v>13.28480652529401</v>
       </c>
       <c r="F19">
-        <v>45.80844792642614</v>
+        <v>26.49061173863754</v>
       </c>
       <c r="G19">
-        <v>2.002424064000943</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>37.61483235058228</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.312449885296117</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.82380475275114</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.08675908465671</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.39521715597793</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.45914514287325</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>21.34631877703326</v>
+      </c>
+      <c r="P19">
+        <v>10.88367292861119</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.0774396601774</v>
+        <v>23.68102859557842</v>
       </c>
       <c r="C20">
-        <v>23.78261750486479</v>
+        <v>20.22371539619494</v>
       </c>
       <c r="D20">
-        <v>4.158645688356509</v>
+        <v>3.582362863636686</v>
       </c>
       <c r="E20">
-        <v>11.09823731154688</v>
+        <v>13.57933729930923</v>
       </c>
       <c r="F20">
-        <v>46.70064206621434</v>
+        <v>26.90480063662307</v>
       </c>
       <c r="G20">
-        <v>1.996979022801273</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>38.26537286044568</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.399836988444859</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.91688084423721</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.17034163607117</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.92940244633927</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.40325375457832</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.76485950230848</v>
+      </c>
+      <c r="P20">
+        <v>10.80688189910816</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.35358126177501</v>
+        <v>25.14220576441782</v>
       </c>
       <c r="C21">
-        <v>25.47336997481514</v>
+        <v>21.45787399955107</v>
       </c>
       <c r="D21">
-        <v>4.170059655208066</v>
+        <v>3.621468165713286</v>
       </c>
       <c r="E21">
-        <v>11.93124833753995</v>
+        <v>14.54597881283135</v>
       </c>
       <c r="F21">
-        <v>49.80863445214748</v>
+        <v>28.30432892303509</v>
       </c>
       <c r="G21">
-        <v>1.978584596064651</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>40.45997089360496</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.689486685906774</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.24404134790566</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.48391436554087</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.69045757463038</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.22767523144322</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>23.12918669454622</v>
+      </c>
+      <c r="P21">
+        <v>10.54976800055431</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.80986046988097</v>
+        <v>26.07520170299017</v>
       </c>
       <c r="C22">
-        <v>26.55670931211217</v>
+        <v>22.21697492864307</v>
       </c>
       <c r="D22">
-        <v>4.186780909783435</v>
+        <v>3.64220371619019</v>
       </c>
       <c r="E22">
-        <v>12.46860137230968</v>
+        <v>15.16056894317222</v>
       </c>
       <c r="F22">
-        <v>51.88944056871247</v>
+        <v>29.24173982811969</v>
       </c>
       <c r="G22">
-        <v>1.966432156072572</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>41.93073457167784</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.875926532847869</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.47570346276335</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.7300302383031</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.81938656001494</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.12332769958444</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.99134675496559</v>
+      </c>
+      <c r="P22">
+        <v>10.38163854367092</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.03522463259874</v>
+        <v>25.59913442084033</v>
       </c>
       <c r="C23">
-        <v>25.9802833613099</v>
+        <v>21.7937445130939</v>
       </c>
       <c r="D23">
-        <v>4.176925416131192</v>
+        <v>3.627101637612916</v>
       </c>
       <c r="E23">
-        <v>12.18232796392723</v>
+        <v>14.83233662278681</v>
       </c>
       <c r="F23">
-        <v>50.77958162325172</v>
+        <v>28.7771513315311</v>
       </c>
       <c r="G23">
-        <v>1.972934044745588</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>41.2090262942375</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.775677097814931</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.36534241174591</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.62881499988687</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>27.21865254006376</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.1779751911631</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.53617259017753</v>
+      </c>
+      <c r="P23">
+        <v>10.47066092012613</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.03965525979599</v>
+        <v>23.68611379014595</v>
       </c>
       <c r="C24">
-        <v>23.75457369724679</v>
+        <v>20.16957780948023</v>
       </c>
       <c r="D24">
-        <v>4.158597953833165</v>
+        <v>3.575460961223373</v>
       </c>
       <c r="E24">
-        <v>11.08447701488604</v>
+        <v>13.56061090304935</v>
       </c>
       <c r="F24">
-        <v>46.65167777103997</v>
+        <v>26.9376719310275</v>
       </c>
       <c r="G24">
-        <v>1.997278283560868</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>38.32823091044411</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.39311060595554</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.93318677932418</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.21397797499393</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.90020172814961</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.40628009100347</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.74541143495014</v>
+      </c>
+      <c r="P24">
+        <v>10.81039468790764</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.65156346124502</v>
+        <v>21.44638560683311</v>
       </c>
       <c r="C25">
-        <v>21.24245469841614</v>
+        <v>18.29901893426361</v>
       </c>
       <c r="D25">
-        <v>4.171175961225265</v>
+        <v>3.517433057405767</v>
       </c>
       <c r="E25">
-        <v>9.957515838922173</v>
+        <v>12.20907948873896</v>
       </c>
       <c r="F25">
-        <v>42.36369727069182</v>
+        <v>24.90457659279932</v>
       </c>
       <c r="G25">
-        <v>2.023319342978422</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>35.11655224245206</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.970627771423689</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.48407364949101</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.80477875795124</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.28574470952029</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.68934942730034</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>19.67381765433533</v>
+      </c>
+      <c r="P25">
+        <v>11.18103683501802</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.69644587241374</v>
+        <v>19.12612173368464</v>
       </c>
       <c r="C2">
-        <v>16.75486205461429</v>
+        <v>17.25357144698917</v>
       </c>
       <c r="D2">
-        <v>3.463278742003103</v>
+        <v>3.609487925486157</v>
       </c>
       <c r="E2">
-        <v>11.31044631315178</v>
+        <v>11.34156900348808</v>
       </c>
       <c r="F2">
-        <v>23.47082826034992</v>
+        <v>22.54164195159226</v>
       </c>
       <c r="G2">
-        <v>32.84745286320022</v>
+        <v>30.66706044675726</v>
       </c>
       <c r="I2">
-        <v>3.647673505379407</v>
+        <v>3.568309266014693</v>
       </c>
       <c r="J2">
-        <v>10.20456626032722</v>
+        <v>10.50016121285204</v>
       </c>
       <c r="K2">
-        <v>14.61383000257698</v>
+        <v>13.89330600264124</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.63701363922874</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.18015296872229</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.02988777732094</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.45909622967579</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.93799723449124</v>
+      </c>
+      <c r="R2">
+        <v>11.49846977273838</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.3832137605587</v>
+        <v>17.89839491120021</v>
       </c>
       <c r="C3">
-        <v>15.6741459765433</v>
+        <v>16.09184076525102</v>
       </c>
       <c r="D3">
-        <v>3.431144939725138</v>
+        <v>3.544188650005768</v>
       </c>
       <c r="E3">
-        <v>10.69452234888656</v>
+        <v>10.72163050564058</v>
       </c>
       <c r="F3">
-        <v>22.42680697194775</v>
+        <v>21.62455413275086</v>
       </c>
       <c r="G3">
-        <v>31.16694963011119</v>
+        <v>29.1756731886021</v>
       </c>
       <c r="I3">
-        <v>3.422173548163908</v>
+        <v>3.37405869946588</v>
       </c>
       <c r="J3">
-        <v>10.00424794287579</v>
+        <v>10.31954166660439</v>
       </c>
       <c r="K3">
-        <v>14.45683213848073</v>
+        <v>13.82557529752577</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.72809606722653</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.918088563208896</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.83293395825363</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.65137332628303</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.75824729444306</v>
+      </c>
+      <c r="R3">
+        <v>11.66405036380042</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.5268626925856</v>
+        <v>17.09723231296239</v>
       </c>
       <c r="C4">
-        <v>14.97833346338743</v>
+        <v>15.34260398173364</v>
       </c>
       <c r="D4">
-        <v>3.411093607745038</v>
+        <v>3.503516819175428</v>
       </c>
       <c r="E4">
-        <v>10.31265884273332</v>
+        <v>10.33741272565335</v>
       </c>
       <c r="F4">
-        <v>21.77692880731324</v>
+        <v>21.05309092038477</v>
       </c>
       <c r="G4">
-        <v>30.11185261614041</v>
+        <v>28.24225931722638</v>
       </c>
       <c r="I4">
-        <v>3.279930423370084</v>
+        <v>3.251543495650898</v>
       </c>
       <c r="J4">
-        <v>9.885318618405783</v>
+        <v>10.20881810530478</v>
       </c>
       <c r="K4">
-        <v>14.36730171462393</v>
+        <v>13.78868675979091</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.78269433335596</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.783710089084828</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.05810699755936</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.77137502440717</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.99404220106159</v>
+      </c>
+      <c r="R4">
+        <v>11.76817857022491</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.15877353444685</v>
+        <v>16.75252963901527</v>
       </c>
       <c r="C5">
-        <v>14.69398023949804</v>
+        <v>15.03555102411062</v>
       </c>
       <c r="D5">
-        <v>3.403806729750823</v>
+        <v>3.487880237311911</v>
       </c>
       <c r="E5">
-        <v>10.15686367399593</v>
+        <v>10.18069303929842</v>
       </c>
       <c r="F5">
-        <v>21.49889097812551</v>
+        <v>20.80743136031641</v>
       </c>
       <c r="G5">
-        <v>29.65587237480936</v>
+        <v>27.83760169085788</v>
       </c>
       <c r="I5">
-        <v>3.221113517190308</v>
+        <v>3.201184194336322</v>
       </c>
       <c r="J5">
-        <v>9.833968050089458</v>
+        <v>10.16009247946585</v>
       </c>
       <c r="K5">
-        <v>14.32400694369037</v>
+        <v>13.76688545422282</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.7982435520752</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.730211221959676</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.73156280290742</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11.82062289211905</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.67188193658403</v>
+      </c>
+      <c r="R5">
+        <v>11.81130346716447</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.08897809795446</v>
+        <v>16.68690451470769</v>
       </c>
       <c r="C6">
-        <v>14.65524417997768</v>
+        <v>14.99298231490421</v>
       </c>
       <c r="D6">
-        <v>3.403774750955071</v>
+        <v>3.486593610355894</v>
       </c>
       <c r="E6">
-        <v>10.13164512274329</v>
+        <v>10.15531391420114</v>
       </c>
       <c r="F6">
-        <v>21.43875201250806</v>
+        <v>20.75313529832207</v>
       </c>
       <c r="G6">
-        <v>29.55453432605873</v>
+        <v>27.74539386016033</v>
       </c>
       <c r="I6">
-        <v>3.211615782933065</v>
+        <v>3.193473886917395</v>
       </c>
       <c r="J6">
-        <v>9.820706094660226</v>
+        <v>10.14751499128649</v>
       </c>
       <c r="K6">
-        <v>14.30654414470526</v>
+        <v>13.75369312601094</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.79303895211609</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.71474141614152</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.6758745940473</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11.82863748407405</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.61695959576753</v>
+      </c>
+      <c r="R6">
+        <v>11.81858980785956</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.50085936235072</v>
+        <v>17.06392273298832</v>
       </c>
       <c r="C7">
-        <v>14.99846727330683</v>
+        <v>15.34772572393854</v>
       </c>
       <c r="D7">
-        <v>3.414242456532204</v>
+        <v>3.509537651463537</v>
       </c>
       <c r="E7">
-        <v>10.31241339383917</v>
+        <v>10.34153993060961</v>
       </c>
       <c r="F7">
-        <v>21.73585910886818</v>
+        <v>20.98916981218397</v>
       </c>
       <c r="G7">
-        <v>30.03776682086954</v>
+        <v>28.2609025007912</v>
       </c>
       <c r="I7">
-        <v>3.279725409501241</v>
+        <v>3.251626598341941</v>
       </c>
       <c r="J7">
-        <v>9.87159163587382</v>
+        <v>10.13788772439493</v>
       </c>
       <c r="K7">
-        <v>14.33845125915308</v>
+        <v>13.75108823356492</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.75328992590064</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.755102652507327</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.05145643936165</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>11.77157656265994</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.98308147208939</v>
+      </c>
+      <c r="R7">
+        <v>11.76936821024951</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.22818684636756</v>
+        <v>18.66223002874766</v>
       </c>
       <c r="C8">
-        <v>16.41818151497599</v>
+        <v>16.84460635823318</v>
       </c>
       <c r="D8">
-        <v>3.456643868880064</v>
+        <v>3.600772266925883</v>
       </c>
       <c r="E8">
-        <v>11.10123995324832</v>
+        <v>11.14465947283454</v>
       </c>
       <c r="F8">
-        <v>23.06602391784815</v>
+        <v>22.10453233592785</v>
       </c>
       <c r="G8">
-        <v>32.18856341054651</v>
+        <v>30.35761893669527</v>
       </c>
       <c r="I8">
-        <v>3.570992023370516</v>
+        <v>3.501021580088848</v>
       </c>
       <c r="J8">
-        <v>10.1177975547347</v>
+        <v>10.23382187185258</v>
       </c>
       <c r="K8">
-        <v>14.52127211204804</v>
+        <v>13.79846527862161</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.61574318090292</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.027967202593196</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.62257625367458</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.52471992018973</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.52300173570201</v>
+      </c>
+      <c r="R8">
+        <v>11.55737071986697</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.25564508613521</v>
+        <v>21.48636079032505</v>
       </c>
       <c r="C9">
-        <v>18.91024512460801</v>
+        <v>19.51259839230508</v>
       </c>
       <c r="D9">
-        <v>3.53118073896974</v>
+        <v>3.758362742177512</v>
       </c>
       <c r="E9">
-        <v>12.61084439750844</v>
+        <v>12.69329192894952</v>
       </c>
       <c r="F9">
-        <v>25.65340441247998</v>
+        <v>24.36608039526997</v>
       </c>
       <c r="G9">
-        <v>36.31501799523522</v>
+        <v>34.08602833384281</v>
       </c>
       <c r="I9">
-        <v>4.113601385664889</v>
+        <v>3.966813482576909</v>
       </c>
       <c r="J9">
-        <v>10.65491655616009</v>
+        <v>10.65560585960786</v>
       </c>
       <c r="K9">
-        <v>14.98650397781154</v>
+        <v>14.01831119785715</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.40170599553314</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.82648307723653</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.39422658965509</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.05518083714224</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.24959748481893</v>
+      </c>
+      <c r="R9">
+        <v>11.15844494942889</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.23666986720031</v>
+        <v>23.29281063932004</v>
       </c>
       <c r="C10">
-        <v>20.59971404915031</v>
+        <v>21.24819015223302</v>
       </c>
       <c r="D10">
-        <v>3.58589066352989</v>
+        <v>3.888116500300492</v>
       </c>
       <c r="E10">
-        <v>13.90960096147545</v>
+        <v>14.02081262088955</v>
       </c>
       <c r="F10">
-        <v>27.47429500089546</v>
+        <v>25.83764507771483</v>
       </c>
       <c r="G10">
-        <v>39.17743310785536</v>
+        <v>37.10523390547877</v>
       </c>
       <c r="I10">
-        <v>4.497277904644685</v>
+        <v>4.292735523710721</v>
       </c>
       <c r="J10">
-        <v>11.06210394454927</v>
+        <v>10.65196620680834</v>
       </c>
       <c r="K10">
-        <v>15.35273607275337</v>
+        <v>14.13536373966282</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.18973101802867</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.444434888877945</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.24429670082124</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>10.71746139454615</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.0458062439601</v>
+      </c>
+      <c r="R10">
+        <v>10.88209082662911</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.06314701384106</v>
+        <v>23.98102398330552</v>
       </c>
       <c r="C11">
-        <v>21.36454568287741</v>
+        <v>21.92065993301512</v>
       </c>
       <c r="D11">
-        <v>3.616019116486608</v>
+        <v>3.980792047103103</v>
       </c>
       <c r="E11">
-        <v>14.48310041157839</v>
+        <v>14.63827994048614</v>
       </c>
       <c r="F11">
-        <v>28.23948749094437</v>
+        <v>26.24698316032257</v>
       </c>
       <c r="G11">
-        <v>40.36357818549602</v>
+        <v>39.08111567348625</v>
       </c>
       <c r="I11">
-        <v>4.669955969301568</v>
+        <v>4.434945287240152</v>
       </c>
       <c r="J11">
-        <v>11.23248983403658</v>
+        <v>10.10687498095768</v>
       </c>
       <c r="K11">
-        <v>15.48547472412273</v>
+        <v>14.04940726856105</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.99794332543194</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.615372091963691</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.04417838091414</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>10.56592362609898</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>22.78731842585113</v>
+      </c>
+      <c r="R11">
+        <v>10.77178584775542</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.38287740129288</v>
+        <v>24.24128093622434</v>
       </c>
       <c r="C12">
-        <v>21.63411557040163</v>
+        <v>22.14266693619071</v>
       </c>
       <c r="D12">
-        <v>3.624380244464599</v>
+        <v>4.01614599782912</v>
       </c>
       <c r="E12">
-        <v>14.69637309529351</v>
+        <v>14.87156253023212</v>
       </c>
       <c r="F12">
-        <v>28.55304217933152</v>
+        <v>26.40193448668384</v>
       </c>
       <c r="G12">
-        <v>40.85423426382534</v>
+        <v>39.95114440306074</v>
       </c>
       <c r="I12">
-        <v>4.734523815500157</v>
+        <v>4.486530481826078</v>
       </c>
       <c r="J12">
-        <v>11.3077588274147</v>
+        <v>9.849266654268979</v>
       </c>
       <c r="K12">
-        <v>15.56012491079124</v>
+        <v>14.02580352080881</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.93120508871894</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.688752682655492</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.3432112760393</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>10.50828898004827</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>23.06032574415547</v>
+      </c>
+      <c r="R12">
+        <v>10.730616402114</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.31703024502778</v>
+        <v>24.18844754923315</v>
       </c>
       <c r="C13">
-        <v>21.57321836749203</v>
+        <v>22.09259462609209</v>
       </c>
       <c r="D13">
-        <v>3.621978423876496</v>
+        <v>4.007675386778818</v>
       </c>
       <c r="E13">
-        <v>14.65032154229315</v>
+        <v>14.82106436196524</v>
       </c>
       <c r="F13">
-        <v>28.49073930882062</v>
+        <v>26.374634602416</v>
       </c>
       <c r="G13">
-        <v>40.75780366491178</v>
+        <v>39.76914231637739</v>
       </c>
       <c r="I13">
-        <v>4.720497341347638</v>
+        <v>4.475136663381014</v>
       </c>
       <c r="J13">
-        <v>11.29354084950546</v>
+        <v>9.909114693931272</v>
       </c>
       <c r="K13">
-        <v>15.54857308277604</v>
+        <v>14.03564970524593</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.94866085856952</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.676983842996059</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.27936408876399</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>10.52060010468815</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>23.00223462765617</v>
+      </c>
+      <c r="R13">
+        <v>10.73903259415286</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.09074813981858</v>
+        <v>24.0038270602073</v>
       </c>
       <c r="C14">
-        <v>21.3855111815295</v>
+        <v>21.93797381008467</v>
       </c>
       <c r="D14">
-        <v>3.616451739571475</v>
+        <v>3.983334643360913</v>
       </c>
       <c r="E14">
-        <v>14.50059783933628</v>
+        <v>14.65736138862279</v>
       </c>
       <c r="F14">
-        <v>28.26752224078523</v>
+        <v>26.26235452002091</v>
       </c>
       <c r="G14">
-        <v>40.40790559353548</v>
+        <v>39.1549164975518</v>
       </c>
       <c r="I14">
-        <v>4.675211808835098</v>
+        <v>4.439063287714416</v>
       </c>
       <c r="J14">
-        <v>11.23953171621414</v>
+        <v>10.0876216844954</v>
       </c>
       <c r="K14">
-        <v>15.49354291375586</v>
+        <v>14.04950886209655</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.99378139013035</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.623139482218527</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.06902282498291</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>10.56114020801691</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>22.81009044184525</v>
+      </c>
+      <c r="R14">
+        <v>10.76821096086733</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.94583006257411</v>
+        <v>23.88374003134492</v>
       </c>
       <c r="C15">
-        <v>21.27603644020687</v>
+        <v>21.84708453569703</v>
       </c>
       <c r="D15">
-        <v>3.614247767500333</v>
+        <v>3.970251278687599</v>
       </c>
       <c r="E15">
-        <v>14.40901885723494</v>
+        <v>14.55763122373541</v>
       </c>
       <c r="F15">
-        <v>28.12026159896284</v>
+        <v>26.18040571080289</v>
       </c>
       <c r="G15">
-        <v>40.17491104107778</v>
+        <v>38.77111164130879</v>
       </c>
       <c r="I15">
-        <v>4.647768629828352</v>
+        <v>4.417576232261309</v>
       </c>
       <c r="J15">
-        <v>11.20251657678285</v>
+        <v>10.18567420473952</v>
       </c>
       <c r="K15">
-        <v>15.4509297629375</v>
+        <v>14.04803588934258</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.01491470493341</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.581754240297068</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.93885061099513</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>10.58616498934433</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>22.69060294023309</v>
+      </c>
+      <c r="R15">
+        <v>10.78701184316051</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.13516669782845</v>
+        <v>23.20090331780728</v>
       </c>
       <c r="C16">
-        <v>20.60155212662652</v>
+        <v>21.25396427973845</v>
       </c>
       <c r="D16">
-        <v>3.593890477733715</v>
+        <v>3.893691019857997</v>
       </c>
       <c r="E16">
-        <v>13.87587151966862</v>
+        <v>13.98454915656595</v>
       </c>
       <c r="F16">
-        <v>27.3360761016751</v>
+        <v>25.7224586682161</v>
       </c>
       <c r="G16">
-        <v>38.94376673907693</v>
+        <v>36.8357097624082</v>
       </c>
       <c r="I16">
-        <v>4.487977297996629</v>
+        <v>4.288339900819856</v>
       </c>
       <c r="J16">
-        <v>11.01689888410822</v>
+        <v>10.64834944025126</v>
       </c>
       <c r="K16">
-        <v>15.26709546091324</v>
+        <v>14.06824779458956</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.15408444820012</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.371190934089697</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.18589923677061</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>10.728624245678</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>21.99097117514269</v>
+      </c>
+      <c r="R16">
+        <v>10.89437596909958</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.62512215055443</v>
+        <v>22.75727194930906</v>
       </c>
       <c r="C17">
-        <v>20.17978189664867</v>
+        <v>20.85907167434183</v>
       </c>
       <c r="D17">
-        <v>3.581249583931671</v>
+        <v>3.852652188864888</v>
       </c>
       <c r="E17">
-        <v>13.54391085009444</v>
+        <v>13.63419364653522</v>
       </c>
       <c r="F17">
-        <v>26.85087341703096</v>
+        <v>25.39656807380803</v>
       </c>
       <c r="G17">
-        <v>38.17998444440897</v>
+        <v>35.78626854161573</v>
       </c>
       <c r="I17">
-        <v>4.389430685246431</v>
+        <v>4.207421792709368</v>
       </c>
       <c r="J17">
-        <v>10.90409460150751</v>
+        <v>10.82284967125775</v>
       </c>
       <c r="K17">
-        <v>15.15685883047281</v>
+        <v>14.05975338925164</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.2249994123308</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.226167382984979</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.71413242564897</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>10.81624748970675</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>21.54498444709322</v>
+      </c>
+      <c r="R17">
+        <v>10.96327993332198</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.34154924328219</v>
+        <v>22.50699822736421</v>
       </c>
       <c r="C18">
-        <v>19.91782319436496</v>
+        <v>20.60407390215751</v>
       </c>
       <c r="D18">
-        <v>3.570896164194559</v>
+        <v>3.827759755594223</v>
       </c>
       <c r="E18">
-        <v>13.34983433780331</v>
+        <v>13.43187739366563</v>
       </c>
       <c r="F18">
-        <v>26.59763610899852</v>
+        <v>25.21909551248607</v>
       </c>
       <c r="G18">
-        <v>37.78604626640286</v>
+        <v>35.28071302873126</v>
       </c>
       <c r="I18">
-        <v>4.331246669048093</v>
+        <v>4.157873455605921</v>
       </c>
       <c r="J18">
-        <v>10.85010285727527</v>
+        <v>10.89260731403506</v>
       </c>
       <c r="K18">
-        <v>15.11795074441476</v>
+        <v>14.06920616967492</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.27513060110442</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.155853743097737</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.44077810633785</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>10.86641644351562</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>21.28380545063204</v>
+      </c>
+      <c r="R18">
+        <v>11.00257724991181</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.23356452491964</v>
+        <v>22.40987953808674</v>
       </c>
       <c r="C19">
-        <v>19.84123538740459</v>
+        <v>20.52830481549272</v>
       </c>
       <c r="D19">
-        <v>3.569715825059748</v>
+        <v>3.822251489022341</v>
       </c>
       <c r="E19">
-        <v>13.28480652529401</v>
+        <v>13.3644268115816</v>
       </c>
       <c r="F19">
-        <v>26.49061173863754</v>
+        <v>25.1358764081354</v>
       </c>
       <c r="G19">
-        <v>37.61483235058228</v>
+        <v>35.08198448902149</v>
       </c>
       <c r="I19">
-        <v>4.312449885296117</v>
+        <v>4.142738906601961</v>
       </c>
       <c r="J19">
-        <v>10.82380475275114</v>
+        <v>10.90196411418074</v>
       </c>
       <c r="K19">
-        <v>15.08675908465671</v>
+        <v>14.05439304713454</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.27992279763011</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.116812892027413</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.34631877703326</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>10.88367292861119</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>21.19309386279361</v>
+      </c>
+      <c r="R19">
+        <v>11.01705007046062</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.68102859557842</v>
+        <v>22.80653150222498</v>
       </c>
       <c r="C20">
-        <v>20.22371539619494</v>
+        <v>20.90103561381979</v>
       </c>
       <c r="D20">
-        <v>3.582362863636686</v>
+        <v>3.856541810865666</v>
       </c>
       <c r="E20">
-        <v>13.57933729930923</v>
+        <v>13.67134490943437</v>
       </c>
       <c r="F20">
-        <v>26.90480063662307</v>
+        <v>25.43501289887886</v>
       </c>
       <c r="G20">
-        <v>38.26537286044568</v>
+        <v>35.89637975094988</v>
       </c>
       <c r="I20">
-        <v>4.399836988444859</v>
+        <v>4.215910309121111</v>
       </c>
       <c r="J20">
-        <v>10.91688084423721</v>
+        <v>10.80918577259782</v>
       </c>
       <c r="K20">
-        <v>15.17034163607117</v>
+        <v>14.06313080324878</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.21913550410222</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.243635344618808</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.76485950230848</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>10.80688189910816</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.59322558420442</v>
+      </c>
+      <c r="R20">
+        <v>10.95573344363199</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.14220576441782</v>
+        <v>24.0214427021289</v>
       </c>
       <c r="C21">
-        <v>21.45787399955107</v>
+        <v>21.96152747696409</v>
       </c>
       <c r="D21">
-        <v>3.621468165713286</v>
+        <v>4.004318553413599</v>
       </c>
       <c r="E21">
-        <v>14.54597881283135</v>
+        <v>14.71819673034201</v>
       </c>
       <c r="F21">
-        <v>28.30432892303509</v>
+        <v>26.19601945586896</v>
       </c>
       <c r="G21">
-        <v>40.45997089360496</v>
+        <v>39.54024295621674</v>
       </c>
       <c r="I21">
-        <v>4.689486685906774</v>
+        <v>4.44962497541129</v>
       </c>
       <c r="J21">
-        <v>11.24404134790566</v>
+        <v>9.842629328142461</v>
       </c>
       <c r="K21">
-        <v>15.48391436554087</v>
+        <v>13.98411178444453</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.9407315481945</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.586324855016439</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.12918669454622</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>10.54976800055431</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.85301149994048</v>
+      </c>
+      <c r="R21">
+        <v>10.76496477229842</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.07520170299017</v>
+        <v>24.79092167183842</v>
       </c>
       <c r="C22">
-        <v>22.21697492864307</v>
+        <v>22.59873069978842</v>
       </c>
       <c r="D22">
-        <v>3.64220371619019</v>
+        <v>4.100273249583963</v>
       </c>
       <c r="E22">
-        <v>15.16056894317222</v>
+        <v>15.38554114140525</v>
       </c>
       <c r="F22">
-        <v>29.24173982811969</v>
+        <v>26.7004843761725</v>
       </c>
       <c r="G22">
-        <v>41.93073457167784</v>
+        <v>42.00703334138042</v>
       </c>
       <c r="I22">
-        <v>4.875926532847869</v>
+        <v>4.598371258148362</v>
       </c>
       <c r="J22">
-        <v>11.47570346276335</v>
+        <v>9.179930951548776</v>
       </c>
       <c r="K22">
-        <v>15.7300302383031</v>
+        <v>13.95407573511558</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.77170874907933</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.83486831561129</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.99134675496559</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>10.38163854367092</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.64445133053173</v>
+      </c>
+      <c r="R22">
+        <v>10.64409271822724</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.59913442084033</v>
+        <v>24.41691724356904</v>
       </c>
       <c r="C23">
-        <v>21.7937445130939</v>
+        <v>22.26826246580374</v>
       </c>
       <c r="D23">
-        <v>3.627101637612916</v>
+        <v>4.036957939082281</v>
       </c>
       <c r="E23">
-        <v>14.83233662278681</v>
+        <v>15.02137543304632</v>
       </c>
       <c r="F23">
-        <v>28.7771513315311</v>
+        <v>26.51651668337209</v>
       </c>
       <c r="G23">
-        <v>41.2090262942375</v>
+        <v>40.57217476495249</v>
       </c>
       <c r="I23">
-        <v>4.775677097814931</v>
+        <v>4.518367928737618</v>
       </c>
       <c r="J23">
-        <v>11.36534241174591</v>
+        <v>9.674170666609061</v>
       </c>
       <c r="K23">
-        <v>15.62881499988687</v>
+        <v>14.0255056245894</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.89770925756424</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.749188605970307</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.53617259017753</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>10.47066092012613</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.23535723792768</v>
+      </c>
+      <c r="R23">
+        <v>10.70305932581719</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.68611379014595</v>
+        <v>22.81366518872507</v>
       </c>
       <c r="C24">
-        <v>20.16957780948023</v>
+        <v>20.8479833099942</v>
       </c>
       <c r="D24">
-        <v>3.575460961223373</v>
+        <v>3.847685581681482</v>
       </c>
       <c r="E24">
-        <v>13.56061090304935</v>
+        <v>13.65192021333876</v>
       </c>
       <c r="F24">
-        <v>26.9376719310275</v>
+        <v>25.47299213315463</v>
       </c>
       <c r="G24">
-        <v>38.32823091044411</v>
+        <v>35.94515310085351</v>
       </c>
       <c r="I24">
-        <v>4.39311060595554</v>
+        <v>4.20795640876105</v>
       </c>
       <c r="J24">
-        <v>10.93318677932418</v>
+        <v>10.8355797751801</v>
       </c>
       <c r="K24">
-        <v>15.21397797499393</v>
+        <v>14.10749037539314</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.25248356365524</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.274964918905271</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.74541143495014</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>10.81039468790764</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.57472471179183</v>
+      </c>
+      <c r="R24">
+        <v>10.95627363272935</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.44638560683311</v>
+        <v>20.74093723910035</v>
       </c>
       <c r="C25">
-        <v>18.29901893426361</v>
+        <v>18.87435843850537</v>
       </c>
       <c r="D25">
-        <v>3.517433057405767</v>
+        <v>3.719349433640854</v>
       </c>
       <c r="E25">
-        <v>12.20907948873896</v>
+        <v>12.25580324457915</v>
       </c>
       <c r="F25">
-        <v>24.90457659279932</v>
+        <v>23.73736079478367</v>
       </c>
       <c r="G25">
-        <v>35.11655224245206</v>
+        <v>32.8806730943375</v>
       </c>
       <c r="I25">
-        <v>3.970627771423689</v>
+        <v>3.846992077670826</v>
       </c>
       <c r="J25">
-        <v>10.48407364949101</v>
+        <v>10.59933600192054</v>
       </c>
       <c r="K25">
-        <v>14.80477875795124</v>
+        <v>13.92374988468025</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.43951056807775</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.566456706453277</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.67381765433533</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.18103683501802</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.54701146022426</v>
+      </c>
+      <c r="R25">
+        <v>11.26558071467531</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
